--- a/GA/output.xlsx
+++ b/GA/output.xlsx
@@ -4,12 +4,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ackley" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="griewank" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="schwefel" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="rastrigin" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="sphere" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="rotatedhyperellipsoid" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="perm" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="zakharov" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rosenbrock" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="damavandi" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -52,22 +59,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -360,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,20 +490,15 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>std_dev</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>std_dev</t>
+          <t>avg_fitness</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>avg_fitness</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>max_fitness</t>
         </is>
@@ -437,7 +506,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -445,7 +514,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-32768</v>
+        <v>-32.768</v>
       </c>
       <c r="D2" t="n">
         <v>32768</v>
@@ -473,15 +542,18 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>20.2365886434235</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+        <v>0.1182788268457878</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20.3304025319789</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20.1750554575117</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -489,7 +561,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-32768</v>
+        <v>-32.768</v>
       </c>
       <c r="D3" t="n">
         <v>32768</v>
@@ -504,8 +576,183 @@
         <v>50</v>
       </c>
       <c r="H3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1-point_crossover</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>roulette_wheel</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1544151547596032</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20.33618619168274</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20.17325670976781</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>obj_f</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lower_bound</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>upper_bound</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dimension</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pop_size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>num_of_gen</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mut_prob</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>crossover_type</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>selection_type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>std_dev</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>avg_fitness</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>max_fitness</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>damavandi</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.01</v>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1-point_crossover</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>roulette_wheel</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5162497566279147</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.497504474815829</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.051522937315585</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>damavandi</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02</v>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>1-point_crossover</t>
@@ -517,202 +764,17 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>20.37756181338633</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ackley</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-32768</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32768</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" t="n">
-        <v>30</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1-point_crossover</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>roulette_wheel</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>20.33213913539062</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ackley</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>-32768</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32768</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
-        <v>30</v>
-      </c>
-      <c r="G5" t="n">
-        <v>50</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1-point_crossover</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>roulette_wheel</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>20.19371738799745</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ackley</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>-32768</v>
-      </c>
-      <c r="D6" t="n">
-        <v>32768</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="n">
-        <v>30</v>
-      </c>
-      <c r="G6" t="n">
-        <v>50</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1-point_crossover</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>roulette_wheel</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>20.17736279461557</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0876568265889134</v>
-      </c>
-      <c r="M6" t="n">
-        <v>20.26347395496269</v>
-      </c>
-      <c r="N6" t="n">
-        <v>20.17736279461557</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ackley</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>-32768</v>
-      </c>
-      <c r="D7" t="n">
-        <v>32768</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="n">
-        <v>30</v>
-      </c>
-      <c r="G7" t="n">
-        <v>50</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1-point_crossover</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>roulette_wheel</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>20.37731815689409</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.09875677209065148</v>
-      </c>
-      <c r="M7" t="n">
-        <v>20.29161985765682</v>
-      </c>
-      <c r="N7" t="n">
-        <v>20.17736279461557</v>
+        <v>0.1478056438219957</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.11459892656185</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.006017281774414</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -722,7 +784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,20 +840,15 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>std_dev</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>std_dev</t>
+          <t>avg_fitness</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>avg_fitness</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>max_fitness</t>
         </is>
@@ -799,7 +856,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -835,15 +892,18 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>21.53081658798477</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+        <v>1.902940487163692</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13.91556514493934</v>
+      </c>
+      <c r="M2" t="n">
+        <v>11.71732608083256</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -866,7 +926,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -879,202 +939,17 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>22.49801604933341</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>griewank</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-600</v>
-      </c>
-      <c r="D4" t="n">
-        <v>600</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" t="n">
-        <v>30</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1-point_crossover</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>roulette_wheel</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>14.96120188190639</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>griewank</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>-600</v>
-      </c>
-      <c r="D5" t="n">
-        <v>600</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
-        <v>30</v>
-      </c>
-      <c r="G5" t="n">
-        <v>50</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1-point_crossover</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>roulette_wheel</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>20.37888846630922</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>griewank</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>-600</v>
-      </c>
-      <c r="D6" t="n">
-        <v>600</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="n">
-        <v>30</v>
-      </c>
-      <c r="G6" t="n">
-        <v>50</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1-point_crossover</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>roulette_wheel</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>17.9774825420145</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.033100340270386</v>
-      </c>
-      <c r="M6" t="n">
-        <v>19.46928110550966</v>
-      </c>
-      <c r="N6" t="n">
-        <v>14.96120188190639</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>griewank</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>-600</v>
-      </c>
-      <c r="D7" t="n">
-        <v>600</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="n">
-        <v>30</v>
-      </c>
-      <c r="G7" t="n">
-        <v>50</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1-point_crossover</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>roulette_wheel</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>12.26143204063624</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.102366765531859</v>
-      </c>
-      <c r="M7" t="n">
-        <v>17.61540419603995</v>
-      </c>
-      <c r="N7" t="n">
-        <v>12.26143204063624</v>
+        <v>8.391841768942045</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13.56715825155802</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.951547298816537</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1084,7 +959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1140,20 +1015,15 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>std_dev</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>std_dev</t>
+          <t>avg_fitness</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>avg_fitness</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>max_fitness</t>
         </is>
@@ -1161,7 +1031,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1197,15 +1067,18 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1101.965162500543</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+        <v>520.5747999225109</v>
+      </c>
+      <c r="L2" t="n">
+        <v>995.9508806854562</v>
+      </c>
+      <c r="M2" t="n">
+        <v>280.5859374931733</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1228,8 +1101,183 @@
         <v>50</v>
       </c>
       <c r="H3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1-point_crossover</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>roulette_wheel</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>374.3783762317775</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1138.553039821439</v>
+      </c>
+      <c r="M3" t="n">
+        <v>850.0788121565311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>obj_f</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lower_bound</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>upper_bound</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dimension</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pop_size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>num_of_gen</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mut_prob</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>crossover_type</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>selection_type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>std_dev</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>avg_fitness</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>max_fitness</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rastrigin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.01</v>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1-point_crossover</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>roulette_wheel</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>13.06589817847871</v>
+      </c>
+      <c r="L2" t="n">
+        <v>34.06735941377302</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.30219687041821</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rastrigin</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02</v>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>1-point_crossover</t>
@@ -1241,201 +1289,891 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>705.9404765822751</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>schwefel</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-500</v>
-      </c>
-      <c r="D4" t="n">
-        <v>500</v>
-      </c>
-      <c r="E4" t="n">
+        <v>4.464993102362786</v>
+      </c>
+      <c r="L3" t="n">
+        <v>37.11732680011682</v>
+      </c>
+      <c r="M3" t="n">
+        <v>29.51683747518088</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>obj_f</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lower_bound</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>upper_bound</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dimension</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pop_size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>num_of_gen</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mut_prob</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>crossover_type</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>selection_type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>std_dev</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>avg_fitness</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>max_fitness</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sphere</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E2" t="n">
         <v>10</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F2" t="n">
         <v>30</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G2" t="n">
         <v>50</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H2" t="n">
         <v>0.01</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>1-point_crossover</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>roulette_wheel</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>1069.536269694098</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>schwefel</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>-500</v>
-      </c>
-      <c r="D5" t="n">
-        <v>500</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="K2" t="n">
+        <v>2.549925484140437</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.968349794163533</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.613234898695796</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sphere</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E3" t="n">
         <v>10</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F3" t="n">
         <v>30</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G3" t="n">
         <v>50</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1-point_crossover</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>roulette_wheel</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>2.029541294054004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.83649806565204</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.040933456337594</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>obj_f</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lower_bound</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>upper_bound</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dimension</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pop_size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>num_of_gen</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mut_prob</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>crossover_type</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>selection_type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>std_dev</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>avg_fitness</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>max_fitness</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rotatedhyperellipsoid</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-65.536</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.536</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.01</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>1-point_crossover</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>roulette_wheel</t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>870.2482295899204</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="K2" t="n">
+        <v>1778.05085539959</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3381.491627145414</v>
+      </c>
+      <c r="M2" t="n">
+        <v>966.848329147913</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rotatedhyperellipsoid</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-65.536</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.536</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1-point_crossover</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>roulette_wheel</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1148.107824000893</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2518.616217325077</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1506.170624381881</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>obj_f</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lower_bound</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>upper_bound</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dimension</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pop_size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>num_of_gen</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mut_prob</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>crossover_type</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>selection_type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>std_dev</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>avg_fitness</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>max_fitness</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>schwefel</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>-500</v>
-      </c>
-      <c r="D6" t="n">
-        <v>500</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>perm</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
         <v>10</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F2" t="n">
         <v>30</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G2" t="n">
         <v>50</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H2" t="n">
         <v>0.01</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>1-point_crossover</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>roulette_wheel</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>1227.051098219748</v>
-      </c>
-      <c r="L6" t="n">
-        <v>206.133035065283</v>
-      </c>
-      <c r="M6" t="n">
-        <v>994.9482473173169</v>
-      </c>
-      <c r="N6" t="n">
-        <v>705.9404765822751</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>schwefel</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>-500</v>
-      </c>
-      <c r="D7" t="n">
-        <v>500</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="K2" t="n">
+        <v>0.001397153961487506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.001515332126593436</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0001123302406944241</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>perm</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" t="n">
         <v>10</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F3" t="n">
         <v>30</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G3" t="n">
         <v>50</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1-point_crossover</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>roulette_wheel</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.001180266356851663</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.001836960503306813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0001931022080671237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>obj_f</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lower_bound</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>upper_bound</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dimension</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pop_size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>num_of_gen</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mut_prob</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>crossover_type</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>selection_type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>std_dev</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>avg_fitness</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>max_fitness</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>zakharov</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.01</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>1-point_crossover</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>roulette_wheel</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>1805.287474093977</v>
-      </c>
-      <c r="L7" t="n">
-        <v>423.1512436769909</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1135.612709636004</v>
-      </c>
-      <c r="N7" t="n">
-        <v>705.9404765822751</v>
+      <c r="K2" t="n">
+        <v>10.014792716308</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41.94098926345332</v>
+      </c>
+      <c r="M2" t="n">
+        <v>29.48853592583092</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>zakharov</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1-point_crossover</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>roulette_wheel</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>20.23752106612091</v>
+      </c>
+      <c r="L3" t="n">
+        <v>52.26065292390395</v>
+      </c>
+      <c r="M3" t="n">
+        <v>16.7682081750958</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>obj_f</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lower_bound</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>upper_bound</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dimension</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pop_size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>num_of_gen</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mut_prob</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>crossover_type</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>selection_type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>std_dev</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>avg_fitness</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>max_fitness</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rosenbrock</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-2048</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1-point_crossover</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>roulette_wheel</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>11371247455851.96</v>
+      </c>
+      <c r="L2" t="n">
+        <v>17936342932385.6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9286219792044.215</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rosenbrock</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-2048</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1-point_crossover</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>roulette_wheel</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>20128812205256.59</v>
+      </c>
+      <c r="L3" t="n">
+        <v>30878100808334.79</v>
+      </c>
+      <c r="M3" t="n">
+        <v>14959069052207.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>